--- a/StructureDefinition-vl-suppression-most-recent-testdate.xlsx
+++ b/StructureDefinition-vl-suppression-most-recent-testdate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T14:59:12+00:00</t>
+    <t>2023-02-08T15:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
